--- a/simulation data/true/Chongqing_data_2020.xlsx
+++ b/simulation data/true/Chongqing_data_2020.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2019_A" sheetId="1" r:id="rId1"/>
-    <sheet name="2019_B" sheetId="2" r:id="rId2"/>
-    <sheet name="2019_C" sheetId="3" r:id="rId3"/>
+    <sheet name="2020_A" sheetId="1" r:id="rId1"/>
+    <sheet name="2020_B" sheetId="2" r:id="rId2"/>
+    <sheet name="2020_C" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="10">
   <si>
     <t>city</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>AQI_avg</t>
+  </si>
+  <si>
+    <t>Chongqing</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,6 +438,1804 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20191201</v>
+      </c>
+      <c r="C2">
+        <v>7.041666666666667</v>
+      </c>
+      <c r="D2">
+        <v>34.33333333333334</v>
+      </c>
+      <c r="E2">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="F2">
+        <v>46.375</v>
+      </c>
+      <c r="G2">
+        <v>32.70833333333334</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>46.95833333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20191202</v>
+      </c>
+      <c r="C3">
+        <v>9.458333333333334</v>
+      </c>
+      <c r="D3">
+        <v>52.5</v>
+      </c>
+      <c r="E3">
+        <v>0.9220833333333333</v>
+      </c>
+      <c r="F3">
+        <v>74.375</v>
+      </c>
+      <c r="G3">
+        <v>45.16666666666666</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>63.66666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20191203</v>
+      </c>
+      <c r="C4">
+        <v>11.43478260869565</v>
+      </c>
+      <c r="D4">
+        <v>56.17391304347826</v>
+      </c>
+      <c r="E4">
+        <v>1.023043478260869</v>
+      </c>
+      <c r="F4">
+        <v>88.47826086956522</v>
+      </c>
+      <c r="G4">
+        <v>55.8695652173913</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>76.17391304347827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20191204</v>
+      </c>
+      <c r="C5">
+        <v>11.70833333333333</v>
+      </c>
+      <c r="D5">
+        <v>56.375</v>
+      </c>
+      <c r="E5">
+        <v>1.024166666666667</v>
+      </c>
+      <c r="F5">
+        <v>106.375</v>
+      </c>
+      <c r="G5">
+        <v>70.25</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>94.16666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20191205</v>
+      </c>
+      <c r="C6">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="D6">
+        <v>49.95833333333334</v>
+      </c>
+      <c r="E6">
+        <v>0.8758333333333334</v>
+      </c>
+      <c r="F6">
+        <v>87.33333333333333</v>
+      </c>
+      <c r="G6">
+        <v>62.20833333333334</v>
+      </c>
+      <c r="H6">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>84.04166666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20191206</v>
+      </c>
+      <c r="C7">
+        <v>9.041666666666666</v>
+      </c>
+      <c r="D7">
+        <v>57.91666666666666</v>
+      </c>
+      <c r="E7">
+        <v>1.024166666666667</v>
+      </c>
+      <c r="F7">
+        <v>83.75</v>
+      </c>
+      <c r="G7">
+        <v>55.41666666666666</v>
+      </c>
+      <c r="H7">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>75.70833333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20191207</v>
+      </c>
+      <c r="C8">
+        <v>10.125</v>
+      </c>
+      <c r="D8">
+        <v>58.83333333333334</v>
+      </c>
+      <c r="E8">
+        <v>1.07125</v>
+      </c>
+      <c r="F8">
+        <v>84.45833333333333</v>
+      </c>
+      <c r="G8">
+        <v>55.95833333333334</v>
+      </c>
+      <c r="H8">
+        <v>43</v>
+      </c>
+      <c r="I8">
+        <v>76.33333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20191208</v>
+      </c>
+      <c r="C9">
+        <v>13.70833333333333</v>
+      </c>
+      <c r="D9">
+        <v>63.70833333333334</v>
+      </c>
+      <c r="E9">
+        <v>1.151666666666667</v>
+      </c>
+      <c r="F9">
+        <v>119.0416666666667</v>
+      </c>
+      <c r="G9">
+        <v>78.83333333333333</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>104.9166666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20191209</v>
+      </c>
+      <c r="C10">
+        <v>12.39130434782609</v>
+      </c>
+      <c r="D10">
+        <v>66.08695652173913</v>
+      </c>
+      <c r="E10">
+        <v>1.263043478260869</v>
+      </c>
+      <c r="F10">
+        <v>140.304347826087</v>
+      </c>
+      <c r="G10">
+        <v>99.17391304347828</v>
+      </c>
+      <c r="H10">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>130.4347826086957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20191210</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>73.70833333333333</v>
+      </c>
+      <c r="E11">
+        <v>1.25625</v>
+      </c>
+      <c r="F11">
+        <v>139.0833333333333</v>
+      </c>
+      <c r="G11">
+        <v>97.375</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>128.1666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20191211</v>
+      </c>
+      <c r="C12">
+        <v>11.1304347826087</v>
+      </c>
+      <c r="D12">
+        <v>65.95652173913044</v>
+      </c>
+      <c r="E12">
+        <v>1.317826086956522</v>
+      </c>
+      <c r="F12">
+        <v>143.4347826086957</v>
+      </c>
+      <c r="G12">
+        <v>103.1304347826087</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>135.304347826087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>20191212</v>
+      </c>
+      <c r="C13">
+        <v>10.08333333333333</v>
+      </c>
+      <c r="D13">
+        <v>62.5</v>
+      </c>
+      <c r="E13">
+        <v>1.27625</v>
+      </c>
+      <c r="F13">
+        <v>146.125</v>
+      </c>
+      <c r="G13">
+        <v>108.875</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>142.7083333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>20191213</v>
+      </c>
+      <c r="C14">
+        <v>9.583333333333334</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>1.43875</v>
+      </c>
+      <c r="F14">
+        <v>155.8333333333333</v>
+      </c>
+      <c r="G14">
+        <v>111.2083333333333</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>146.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20191214</v>
+      </c>
+      <c r="C15">
+        <v>9.625</v>
+      </c>
+      <c r="D15">
+        <v>44.70833333333334</v>
+      </c>
+      <c r="E15">
+        <v>1.24875</v>
+      </c>
+      <c r="F15">
+        <v>154.9583333333333</v>
+      </c>
+      <c r="G15">
+        <v>115.375</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>151.1666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>20191215</v>
+      </c>
+      <c r="C16">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="D16">
+        <v>44.66666666666666</v>
+      </c>
+      <c r="E16">
+        <v>1.19625</v>
+      </c>
+      <c r="F16">
+        <v>100.75</v>
+      </c>
+      <c r="G16">
+        <v>76.45833333333333</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>101.875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20191216</v>
+      </c>
+      <c r="C17">
+        <v>7.541666666666667</v>
+      </c>
+      <c r="D17">
+        <v>49.66666666666666</v>
+      </c>
+      <c r="E17">
+        <v>1.0925</v>
+      </c>
+      <c r="F17">
+        <v>94.625</v>
+      </c>
+      <c r="G17">
+        <v>70.33333333333333</v>
+      </c>
+      <c r="H17">
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>94.41666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20191217</v>
+      </c>
+      <c r="C18">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D18">
+        <v>45.70833333333334</v>
+      </c>
+      <c r="E18">
+        <v>1.304166666666667</v>
+      </c>
+      <c r="F18">
+        <v>99.20833333333331</v>
+      </c>
+      <c r="G18">
+        <v>68.29166666666667</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>91.70833333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>20191218</v>
+      </c>
+      <c r="C19">
+        <v>5.583333333333333</v>
+      </c>
+      <c r="D19">
+        <v>36.16666666666666</v>
+      </c>
+      <c r="E19">
+        <v>0.8395833333333332</v>
+      </c>
+      <c r="F19">
+        <v>40.375</v>
+      </c>
+      <c r="G19">
+        <v>30.75</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>43.16666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20191219</v>
+      </c>
+      <c r="C20">
+        <v>5.958333333333333</v>
+      </c>
+      <c r="D20">
+        <v>36.79166666666666</v>
+      </c>
+      <c r="E20">
+        <v>0.7645833333333334</v>
+      </c>
+      <c r="F20">
+        <v>38.58333333333334</v>
+      </c>
+      <c r="G20">
+        <v>28.08333333333333</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>41.04166666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>20191220</v>
+      </c>
+      <c r="C21">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>0.8870833333333333</v>
+      </c>
+      <c r="F21">
+        <v>41.29166666666666</v>
+      </c>
+      <c r="G21">
+        <v>29.20833333333333</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20191221</v>
+      </c>
+      <c r="C22">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="D22">
+        <v>38.625</v>
+      </c>
+      <c r="E22">
+        <v>0.8845833333333334</v>
+      </c>
+      <c r="F22">
+        <v>49.625</v>
+      </c>
+      <c r="G22">
+        <v>37.25</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>52.79166666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>20191222</v>
+      </c>
+      <c r="C23">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="D23">
+        <v>38.25</v>
+      </c>
+      <c r="E23">
+        <v>0.8825</v>
+      </c>
+      <c r="F23">
+        <v>53.75</v>
+      </c>
+      <c r="G23">
+        <v>38.45833333333334</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>54.45833333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>20191223</v>
+      </c>
+      <c r="C24">
+        <v>8.625</v>
+      </c>
+      <c r="D24">
+        <v>45.08333333333334</v>
+      </c>
+      <c r="E24">
+        <v>0.9533333333333333</v>
+      </c>
+      <c r="F24">
+        <v>71.625</v>
+      </c>
+      <c r="G24">
+        <v>47.75</v>
+      </c>
+      <c r="H24">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>66.08333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>20191224</v>
+      </c>
+      <c r="C25">
+        <v>9.583333333333334</v>
+      </c>
+      <c r="D25">
+        <v>43.04166666666666</v>
+      </c>
+      <c r="E25">
+        <v>1.010416666666667</v>
+      </c>
+      <c r="F25">
+        <v>78.16666666666667</v>
+      </c>
+      <c r="G25">
+        <v>50.70833333333334</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>69.70833333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>20191225</v>
+      </c>
+      <c r="C26">
+        <v>9.291666666666666</v>
+      </c>
+      <c r="D26">
+        <v>41.33333333333334</v>
+      </c>
+      <c r="E26">
+        <v>0.9629166666666666</v>
+      </c>
+      <c r="F26">
+        <v>79.33333333333333</v>
+      </c>
+      <c r="G26">
+        <v>54.91666666666666</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>20191226</v>
+      </c>
+      <c r="C27">
+        <v>13.125</v>
+      </c>
+      <c r="D27">
+        <v>36.25</v>
+      </c>
+      <c r="E27">
+        <v>0.695</v>
+      </c>
+      <c r="F27">
+        <v>61.95833333333334</v>
+      </c>
+      <c r="G27">
+        <v>41.20833333333334</v>
+      </c>
+      <c r="H27">
+        <v>34</v>
+      </c>
+      <c r="I27">
+        <v>60.95833333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>20191227</v>
+      </c>
+      <c r="C28">
+        <v>7.541666666666667</v>
+      </c>
+      <c r="D28">
+        <v>44.29166666666666</v>
+      </c>
+      <c r="E28">
+        <v>0.6425</v>
+      </c>
+      <c r="F28">
+        <v>61.41666666666666</v>
+      </c>
+      <c r="G28">
+        <v>38.20833333333334</v>
+      </c>
+      <c r="H28">
+        <v>22</v>
+      </c>
+      <c r="I28">
+        <v>56.45833333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20191228</v>
+      </c>
+      <c r="C29">
+        <v>7.208333333333333</v>
+      </c>
+      <c r="D29">
+        <v>47.95833333333334</v>
+      </c>
+      <c r="E29">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="F29">
+        <v>79.41666666666667</v>
+      </c>
+      <c r="G29">
+        <v>55.66666666666666</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>20191229</v>
+      </c>
+      <c r="C30">
+        <v>8.291666666666666</v>
+      </c>
+      <c r="D30">
+        <v>48.08333333333334</v>
+      </c>
+      <c r="E30">
+        <v>0.98625</v>
+      </c>
+      <c r="F30">
+        <v>86</v>
+      </c>
+      <c r="G30">
+        <v>61.54166666666666</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>83.33333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>20191230</v>
+      </c>
+      <c r="C31">
+        <v>10.41666666666667</v>
+      </c>
+      <c r="D31">
+        <v>48.08333333333334</v>
+      </c>
+      <c r="E31">
+        <v>1.119166666666667</v>
+      </c>
+      <c r="F31">
+        <v>138.75</v>
+      </c>
+      <c r="G31">
+        <v>102.7083333333333</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>134.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>20191231</v>
+      </c>
+      <c r="C32">
+        <v>10.16666666666667</v>
+      </c>
+      <c r="D32">
+        <v>48.25</v>
+      </c>
+      <c r="E32">
+        <v>1.122083333333333</v>
+      </c>
+      <c r="F32">
+        <v>127.7916666666667</v>
+      </c>
+      <c r="G32">
+        <v>94.29166666666669</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>124.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>20200101</v>
+      </c>
+      <c r="C33">
+        <v>10.45833333333333</v>
+      </c>
+      <c r="D33">
+        <v>50.04166666666666</v>
+      </c>
+      <c r="E33">
+        <v>0.9779166666666668</v>
+      </c>
+      <c r="F33">
+        <v>92.16666666666669</v>
+      </c>
+      <c r="G33">
+        <v>66.45833333333333</v>
+      </c>
+      <c r="H33">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>89.45833333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20200102</v>
+      </c>
+      <c r="C34">
+        <v>10.20833333333333</v>
+      </c>
+      <c r="D34">
+        <v>60.54166666666666</v>
+      </c>
+      <c r="E34">
+        <v>1.08875</v>
+      </c>
+      <c r="F34">
+        <v>110.75</v>
+      </c>
+      <c r="G34">
+        <v>72.54166666666667</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>97.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>20200103</v>
+      </c>
+      <c r="C35">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="D35">
+        <v>62.125</v>
+      </c>
+      <c r="E35">
+        <v>1.07875</v>
+      </c>
+      <c r="F35">
+        <v>125.5</v>
+      </c>
+      <c r="G35">
+        <v>83.375</v>
+      </c>
+      <c r="H35">
+        <v>28</v>
+      </c>
+      <c r="I35">
+        <v>110.4583333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>20200104</v>
+      </c>
+      <c r="C36">
+        <v>11.625</v>
+      </c>
+      <c r="D36">
+        <v>55.20833333333334</v>
+      </c>
+      <c r="E36">
+        <v>1.086666666666667</v>
+      </c>
+      <c r="F36">
+        <v>127.3333333333333</v>
+      </c>
+      <c r="G36">
+        <v>90.25</v>
+      </c>
+      <c r="H36">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <v>119.2083333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>20200105</v>
+      </c>
+      <c r="C37">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D37">
+        <v>38.83333333333334</v>
+      </c>
+      <c r="E37">
+        <v>1.007083333333333</v>
+      </c>
+      <c r="F37">
+        <v>54.54166666666666</v>
+      </c>
+      <c r="G37">
+        <v>43.91666666666666</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>61.29166666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>20200106</v>
+      </c>
+      <c r="C38">
+        <v>6.375</v>
+      </c>
+      <c r="D38">
+        <v>40.875</v>
+      </c>
+      <c r="E38">
+        <v>0.9729166666666668</v>
+      </c>
+      <c r="F38">
+        <v>60.54166666666666</v>
+      </c>
+      <c r="G38">
+        <v>46.58333333333334</v>
+      </c>
+      <c r="H38">
+        <v>12</v>
+      </c>
+      <c r="I38">
+        <v>64.45833333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>20200107</v>
+      </c>
+      <c r="C39">
+        <v>7.291666666666667</v>
+      </c>
+      <c r="D39">
+        <v>41.125</v>
+      </c>
+      <c r="E39">
+        <v>0.9954166666666668</v>
+      </c>
+      <c r="F39">
+        <v>53.54166666666666</v>
+      </c>
+      <c r="G39">
+        <v>37.875</v>
+      </c>
+      <c r="H39">
+        <v>55</v>
+      </c>
+      <c r="I39">
+        <v>53.875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200108</v>
+      </c>
+      <c r="C40">
+        <v>7.291666666666667</v>
+      </c>
+      <c r="D40">
+        <v>51.5</v>
+      </c>
+      <c r="E40">
+        <v>1.062916666666667</v>
+      </c>
+      <c r="F40">
+        <v>58</v>
+      </c>
+      <c r="G40">
+        <v>40.08333333333334</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+      <c r="I40">
+        <v>56.58333333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>20200109</v>
+      </c>
+      <c r="C41">
+        <v>6.458333333333333</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>1.13125</v>
+      </c>
+      <c r="F41">
+        <v>37.08333333333334</v>
+      </c>
+      <c r="G41">
+        <v>27.375</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>39.45833333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>20200110</v>
+      </c>
+      <c r="C42">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D42">
+        <v>37.75</v>
+      </c>
+      <c r="E42">
+        <v>1.23625</v>
+      </c>
+      <c r="F42">
+        <v>46.125</v>
+      </c>
+      <c r="G42">
+        <v>31.83333333333333</v>
+      </c>
+      <c r="H42">
+        <v>13</v>
+      </c>
+      <c r="I42">
+        <v>46.16666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>20200111</v>
+      </c>
+      <c r="C43">
+        <v>8.833333333333334</v>
+      </c>
+      <c r="D43">
+        <v>42.875</v>
+      </c>
+      <c r="E43">
+        <v>1.225</v>
+      </c>
+      <c r="F43">
+        <v>60.41666666666666</v>
+      </c>
+      <c r="G43">
+        <v>39.95833333333334</v>
+      </c>
+      <c r="H43">
+        <v>38</v>
+      </c>
+      <c r="I43">
+        <v>56.79166666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>20200112</v>
+      </c>
+      <c r="C44">
+        <v>9.25</v>
+      </c>
+      <c r="D44">
+        <v>44.83333333333334</v>
+      </c>
+      <c r="E44">
+        <v>1.151666666666667</v>
+      </c>
+      <c r="F44">
+        <v>63.33333333333334</v>
+      </c>
+      <c r="G44">
+        <v>42.875</v>
+      </c>
+      <c r="H44">
+        <v>45</v>
+      </c>
+      <c r="I44">
+        <v>60.16666666666666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>20200113</v>
+      </c>
+      <c r="C45">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="D45">
+        <v>55.625</v>
+      </c>
+      <c r="E45">
+        <v>1.089583333333333</v>
+      </c>
+      <c r="F45">
+        <v>74.58333333333333</v>
+      </c>
+      <c r="G45">
+        <v>49.375</v>
+      </c>
+      <c r="H45">
+        <v>32</v>
+      </c>
+      <c r="I45">
+        <v>68.04166666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>20200114</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>44.125</v>
+      </c>
+      <c r="E46">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="F46">
+        <v>69.04166666666667</v>
+      </c>
+      <c r="G46">
+        <v>48.70833333333334</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="I46">
+        <v>67.29166666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>20200115</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>37.54166666666666</v>
+      </c>
+      <c r="E47">
+        <v>0.80875</v>
+      </c>
+      <c r="F47">
+        <v>45.20833333333334</v>
+      </c>
+      <c r="G47">
+        <v>30.66666666666667</v>
+      </c>
+      <c r="H47">
+        <v>24</v>
+      </c>
+      <c r="I47">
+        <v>45.29166666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>20200116</v>
+      </c>
+      <c r="C48">
+        <v>8.291666666666666</v>
+      </c>
+      <c r="D48">
+        <v>41.95833333333334</v>
+      </c>
+      <c r="E48">
+        <v>0.96875</v>
+      </c>
+      <c r="F48">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="G48">
+        <v>47.83333333333334</v>
+      </c>
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>66.29166666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>20200117</v>
+      </c>
+      <c r="C49">
+        <v>9.416666666666666</v>
+      </c>
+      <c r="D49">
+        <v>41.95833333333334</v>
+      </c>
+      <c r="E49">
+        <v>1.071666666666666</v>
+      </c>
+      <c r="F49">
+        <v>76.79166666666667</v>
+      </c>
+      <c r="G49">
+        <v>53.66666666666666</v>
+      </c>
+      <c r="H49">
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>73.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>20200118</v>
+      </c>
+      <c r="C50">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="D50">
+        <v>43</v>
+      </c>
+      <c r="E50">
+        <v>1.123333333333333</v>
+      </c>
+      <c r="F50">
+        <v>72</v>
+      </c>
+      <c r="G50">
+        <v>51.79166666666666</v>
+      </c>
+      <c r="H50">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>71.16666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>20200119</v>
+      </c>
+      <c r="C51">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="D51">
+        <v>43.83333333333334</v>
+      </c>
+      <c r="E51">
+        <v>1.146666666666667</v>
+      </c>
+      <c r="F51">
+        <v>94.08333333333331</v>
+      </c>
+      <c r="G51">
+        <v>68.91666666666667</v>
+      </c>
+      <c r="H51">
+        <v>39</v>
+      </c>
+      <c r="I51">
+        <v>92.41666666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>20200120</v>
+      </c>
+      <c r="C52">
+        <v>8.791666666666666</v>
+      </c>
+      <c r="D52">
+        <v>40.58333333333334</v>
+      </c>
+      <c r="E52">
+        <v>1.015416666666667</v>
+      </c>
+      <c r="F52">
+        <v>84.375</v>
+      </c>
+      <c r="G52">
+        <v>65.25</v>
+      </c>
+      <c r="H52">
+        <v>37</v>
+      </c>
+      <c r="I52">
+        <v>87.91666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>20200121</v>
+      </c>
+      <c r="C53">
+        <v>8.391304347826088</v>
+      </c>
+      <c r="D53">
+        <v>35.30434782608695</v>
+      </c>
+      <c r="E53">
+        <v>0.9839130434782608</v>
+      </c>
+      <c r="F53">
+        <v>79.82608695652173</v>
+      </c>
+      <c r="G53">
+        <v>61.04347826086956</v>
+      </c>
+      <c r="H53">
+        <v>34</v>
+      </c>
+      <c r="I53">
+        <v>82.65217391304348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>20200122</v>
+      </c>
+      <c r="C54">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="D54">
+        <v>38.75</v>
+      </c>
+      <c r="E54">
+        <v>1.045</v>
+      </c>
+      <c r="F54">
+        <v>83.7</v>
+      </c>
+      <c r="G54">
+        <v>63.65</v>
+      </c>
+      <c r="H54">
+        <v>35</v>
+      </c>
+      <c r="I54">
+        <v>85.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>20200123</v>
+      </c>
+      <c r="C55">
+        <v>7.541666666666667</v>
+      </c>
+      <c r="D55">
+        <v>34.125</v>
+      </c>
+      <c r="E55">
+        <v>1.026666666666667</v>
+      </c>
+      <c r="F55">
+        <v>83.125</v>
+      </c>
+      <c r="G55">
+        <v>65.66666666666667</v>
+      </c>
+      <c r="H55">
+        <v>33</v>
+      </c>
+      <c r="I55">
+        <v>88.41666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>20200124</v>
+      </c>
+      <c r="C56">
+        <v>5.791666666666667</v>
+      </c>
+      <c r="D56">
+        <v>22.375</v>
+      </c>
+      <c r="E56">
+        <v>0.8841666666666667</v>
+      </c>
+      <c r="F56">
+        <v>69.125</v>
+      </c>
+      <c r="G56">
+        <v>56.04166666666666</v>
+      </c>
+      <c r="H56">
+        <v>27</v>
+      </c>
+      <c r="I56">
+        <v>76.45833333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>20200125</v>
+      </c>
+      <c r="C57">
+        <v>5.208333333333333</v>
+      </c>
+      <c r="D57">
+        <v>17.54166666666667</v>
+      </c>
+      <c r="E57">
+        <v>0.7345833333333333</v>
+      </c>
+      <c r="F57">
+        <v>44.5</v>
+      </c>
+      <c r="G57">
+        <v>36.5</v>
+      </c>
+      <c r="H57">
+        <v>26</v>
+      </c>
+      <c r="I57">
+        <v>51.66666666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>20200126</v>
+      </c>
+      <c r="C58">
+        <v>5.541666666666667</v>
+      </c>
+      <c r="D58">
+        <v>16.75</v>
+      </c>
+      <c r="E58">
+        <v>0.7595833333333334</v>
+      </c>
+      <c r="F58">
+        <v>46.75</v>
+      </c>
+      <c r="G58">
+        <v>38.54166666666666</v>
+      </c>
+      <c r="H58">
+        <v>34</v>
+      </c>
+      <c r="I58">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>20200127</v>
+      </c>
+      <c r="C59">
+        <v>7.416666666666667</v>
+      </c>
+      <c r="D59">
+        <v>18.70833333333333</v>
+      </c>
+      <c r="E59">
+        <v>0.7891666666666667</v>
+      </c>
+      <c r="F59">
+        <v>36.70833333333334</v>
+      </c>
+      <c r="G59">
+        <v>30.70833333333333</v>
+      </c>
+      <c r="H59">
+        <v>51</v>
+      </c>
+      <c r="I59">
+        <v>43.83333333333334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>20200128</v>
+      </c>
+      <c r="C60">
+        <v>6.458333333333333</v>
+      </c>
+      <c r="D60">
+        <v>18.41666666666667</v>
+      </c>
+      <c r="E60">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="F60">
+        <v>26.75</v>
+      </c>
+      <c r="G60">
+        <v>21.875</v>
+      </c>
+      <c r="H60">
+        <v>49</v>
+      </c>
+      <c r="I60">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>20200129</v>
+      </c>
+      <c r="C61">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D61">
+        <v>19.25</v>
+      </c>
+      <c r="E61">
+        <v>0.8104166666666667</v>
+      </c>
+      <c r="F61">
+        <v>42.91666666666666</v>
+      </c>
+      <c r="G61">
+        <v>34.83333333333334</v>
+      </c>
+      <c r="H61">
+        <v>76</v>
+      </c>
+      <c r="I61">
+        <v>49.54166666666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20200130</v>
+      </c>
+      <c r="C62">
+        <v>9.708333333333334</v>
+      </c>
+      <c r="D62">
+        <v>27.16666666666667</v>
+      </c>
+      <c r="E62">
+        <v>0.9425</v>
+      </c>
+      <c r="F62">
+        <v>66.75</v>
+      </c>
+      <c r="G62">
+        <v>53.08333333333334</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+      <c r="I62">
+        <v>72.66666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>20200131</v>
+      </c>
+      <c r="C63">
+        <v>7.125</v>
+      </c>
+      <c r="D63">
+        <v>26.25</v>
+      </c>
+      <c r="E63">
+        <v>0.9754166666666668</v>
+      </c>
+      <c r="F63">
+        <v>65.58333333333333</v>
+      </c>
+      <c r="G63">
+        <v>55.08333333333334</v>
+      </c>
+      <c r="H63">
+        <v>42</v>
+      </c>
+      <c r="I63">
+        <v>75.16666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -442,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +2278,2616 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20200201</v>
+      </c>
+      <c r="C2">
+        <v>7.041666666666667</v>
+      </c>
+      <c r="D2">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="E2">
+        <v>0.8516666666666667</v>
+      </c>
+      <c r="F2">
+        <v>46.41666666666666</v>
+      </c>
+      <c r="G2">
+        <v>38.58333333333334</v>
+      </c>
+      <c r="H2">
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <v>54.41666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20200202</v>
+      </c>
+      <c r="C3">
+        <v>5.958333333333333</v>
+      </c>
+      <c r="D3">
+        <v>19.45833333333333</v>
+      </c>
+      <c r="E3">
+        <v>0.7904166666666667</v>
+      </c>
+      <c r="F3">
+        <v>55.75</v>
+      </c>
+      <c r="G3">
+        <v>44.58333333333334</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>62.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20200203</v>
+      </c>
+      <c r="C4">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="D4">
+        <v>18.20833333333333</v>
+      </c>
+      <c r="E4">
+        <v>0.7075</v>
+      </c>
+      <c r="F4">
+        <v>44.58333333333334</v>
+      </c>
+      <c r="G4">
+        <v>36.29166666666666</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>51.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20200204</v>
+      </c>
+      <c r="C5">
+        <v>6.208333333333333</v>
+      </c>
+      <c r="D5">
+        <v>19.5</v>
+      </c>
+      <c r="E5">
+        <v>0.76125</v>
+      </c>
+      <c r="F5">
+        <v>40.875</v>
+      </c>
+      <c r="G5">
+        <v>32.33333333333334</v>
+      </c>
+      <c r="H5">
+        <v>58</v>
+      </c>
+      <c r="I5">
+        <v>46.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20200205</v>
+      </c>
+      <c r="C6">
+        <v>7.208333333333333</v>
+      </c>
+      <c r="D6">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="E6">
+        <v>0.7858333333333333</v>
+      </c>
+      <c r="F6">
+        <v>46.75</v>
+      </c>
+      <c r="G6">
+        <v>38.58333333333334</v>
+      </c>
+      <c r="H6">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>54.54166666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20200206</v>
+      </c>
+      <c r="C7">
+        <v>5.041666666666667</v>
+      </c>
+      <c r="D7">
+        <v>15.08333333333333</v>
+      </c>
+      <c r="E7">
+        <v>0.7508333333333334</v>
+      </c>
+      <c r="F7">
+        <v>48.45833333333334</v>
+      </c>
+      <c r="G7">
+        <v>40.33333333333334</v>
+      </c>
+      <c r="H7">
+        <v>48</v>
+      </c>
+      <c r="I7">
+        <v>56.79166666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20200207</v>
+      </c>
+      <c r="C8">
+        <v>5.625</v>
+      </c>
+      <c r="D8">
+        <v>16.5</v>
+      </c>
+      <c r="E8">
+        <v>0.7770833333333332</v>
+      </c>
+      <c r="F8">
+        <v>38.25</v>
+      </c>
+      <c r="G8">
+        <v>31.04166666666667</v>
+      </c>
+      <c r="H8">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <v>44.20833333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20200208</v>
+      </c>
+      <c r="C9">
+        <v>6.25</v>
+      </c>
+      <c r="D9">
+        <v>22.875</v>
+      </c>
+      <c r="E9">
+        <v>0.83875</v>
+      </c>
+      <c r="F9">
+        <v>49.25</v>
+      </c>
+      <c r="G9">
+        <v>39.75</v>
+      </c>
+      <c r="H9">
+        <v>39</v>
+      </c>
+      <c r="I9">
+        <v>55.83333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20200209</v>
+      </c>
+      <c r="C10">
+        <v>5.458333333333333</v>
+      </c>
+      <c r="D10">
+        <v>21.375</v>
+      </c>
+      <c r="E10">
+        <v>0.9379166666666668</v>
+      </c>
+      <c r="F10">
+        <v>73.125</v>
+      </c>
+      <c r="G10">
+        <v>61.25</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>82.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20200210</v>
+      </c>
+      <c r="C11">
+        <v>7.75</v>
+      </c>
+      <c r="D11">
+        <v>28.16666666666667</v>
+      </c>
+      <c r="E11">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="F11">
+        <v>69.5</v>
+      </c>
+      <c r="G11">
+        <v>57.45833333333334</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>78.16666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20200211</v>
+      </c>
+      <c r="C12">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D12">
+        <v>26.125</v>
+      </c>
+      <c r="E12">
+        <v>0.87</v>
+      </c>
+      <c r="F12">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>55.54166666666666</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>75.91666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>20200212</v>
+      </c>
+      <c r="C13">
+        <v>6.958333333333333</v>
+      </c>
+      <c r="D13">
+        <v>24.375</v>
+      </c>
+      <c r="E13">
+        <v>0.8379166666666666</v>
+      </c>
+      <c r="F13">
+        <v>62.91666666666666</v>
+      </c>
+      <c r="G13">
+        <v>50.33333333333334</v>
+      </c>
+      <c r="H13">
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <v>69.33333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>20200213</v>
+      </c>
+      <c r="C14">
+        <v>5.958333333333333</v>
+      </c>
+      <c r="D14">
+        <v>24.58333333333333</v>
+      </c>
+      <c r="E14">
+        <v>0.8408333333333333</v>
+      </c>
+      <c r="F14">
+        <v>70.08333333333333</v>
+      </c>
+      <c r="G14">
+        <v>60.625</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+      <c r="I14">
+        <v>82.16666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20200214</v>
+      </c>
+      <c r="C15">
+        <v>6.75</v>
+      </c>
+      <c r="D15">
+        <v>25.16666666666667</v>
+      </c>
+      <c r="E15">
+        <v>0.91875</v>
+      </c>
+      <c r="F15">
+        <v>91.41666666666669</v>
+      </c>
+      <c r="G15">
+        <v>77.83333333333333</v>
+      </c>
+      <c r="H15">
+        <v>74</v>
+      </c>
+      <c r="I15">
+        <v>103.7083333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>20200215</v>
+      </c>
+      <c r="C16">
+        <v>5.041666666666667</v>
+      </c>
+      <c r="D16">
+        <v>9.208333333333334</v>
+      </c>
+      <c r="E16">
+        <v>0.4675</v>
+      </c>
+      <c r="F16">
+        <v>45.70833333333334</v>
+      </c>
+      <c r="G16">
+        <v>28.79166666666667</v>
+      </c>
+      <c r="H16">
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <v>43.91666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20200216</v>
+      </c>
+      <c r="C17">
+        <v>5.791666666666667</v>
+      </c>
+      <c r="D17">
+        <v>11.75</v>
+      </c>
+      <c r="E17">
+        <v>0.4408333333333333</v>
+      </c>
+      <c r="F17">
+        <v>46.20833333333334</v>
+      </c>
+      <c r="G17">
+        <v>24.04166666666667</v>
+      </c>
+      <c r="H17">
+        <v>83</v>
+      </c>
+      <c r="I17">
+        <v>46.20833333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20200217</v>
+      </c>
+      <c r="C18">
+        <v>6.625</v>
+      </c>
+      <c r="D18">
+        <v>24.375</v>
+      </c>
+      <c r="E18">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="F18">
+        <v>52.95833333333334</v>
+      </c>
+      <c r="G18">
+        <v>33.875</v>
+      </c>
+      <c r="H18">
+        <v>73</v>
+      </c>
+      <c r="I18">
+        <v>51.66666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>20200218</v>
+      </c>
+      <c r="C19">
+        <v>8.75</v>
+      </c>
+      <c r="D19">
+        <v>29.79166666666667</v>
+      </c>
+      <c r="E19">
+        <v>0.6929166666666666</v>
+      </c>
+      <c r="F19">
+        <v>77.04166666666667</v>
+      </c>
+      <c r="G19">
+        <v>55.16666666666666</v>
+      </c>
+      <c r="H19">
+        <v>59</v>
+      </c>
+      <c r="I19">
+        <v>75.29166666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20200219</v>
+      </c>
+      <c r="C20">
+        <v>6.541666666666667</v>
+      </c>
+      <c r="D20">
+        <v>23.75</v>
+      </c>
+      <c r="E20">
+        <v>0.7579166666666667</v>
+      </c>
+      <c r="F20">
+        <v>105.4166666666667</v>
+      </c>
+      <c r="G20">
+        <v>85.95833333333333</v>
+      </c>
+      <c r="H20">
+        <v>76</v>
+      </c>
+      <c r="I20">
+        <v>113.8333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>20200220</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>25.83333333333333</v>
+      </c>
+      <c r="E21">
+        <v>0.6804166666666666</v>
+      </c>
+      <c r="F21">
+        <v>84.16666666666667</v>
+      </c>
+      <c r="G21">
+        <v>68.29166666666667</v>
+      </c>
+      <c r="H21">
+        <v>64</v>
+      </c>
+      <c r="I21">
+        <v>91.66666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20200221</v>
+      </c>
+      <c r="C22">
+        <v>5.5</v>
+      </c>
+      <c r="D22">
+        <v>22.375</v>
+      </c>
+      <c r="E22">
+        <v>0.7045833333333333</v>
+      </c>
+      <c r="F22">
+        <v>108.9583333333333</v>
+      </c>
+      <c r="G22">
+        <v>85.875</v>
+      </c>
+      <c r="H22">
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <v>113.6666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>20200222</v>
+      </c>
+      <c r="C23">
+        <v>7.416666666666667</v>
+      </c>
+      <c r="D23">
+        <v>27.75</v>
+      </c>
+      <c r="E23">
+        <v>0.8412500000000001</v>
+      </c>
+      <c r="F23">
+        <v>83.91666666666667</v>
+      </c>
+      <c r="G23">
+        <v>68.04166666666667</v>
+      </c>
+      <c r="H23">
+        <v>41</v>
+      </c>
+      <c r="I23">
+        <v>91.45833333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>20200223</v>
+      </c>
+      <c r="C24">
+        <v>6.541666666666667</v>
+      </c>
+      <c r="D24">
+        <v>31.625</v>
+      </c>
+      <c r="E24">
+        <v>1.002916666666667</v>
+      </c>
+      <c r="F24">
+        <v>99.20833333333331</v>
+      </c>
+      <c r="G24">
+        <v>80.125</v>
+      </c>
+      <c r="H24">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>106.5833333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>20200224</v>
+      </c>
+      <c r="C25">
+        <v>5.458333333333333</v>
+      </c>
+      <c r="D25">
+        <v>25.58333333333333</v>
+      </c>
+      <c r="E25">
+        <v>0.8995833333333333</v>
+      </c>
+      <c r="F25">
+        <v>62.75</v>
+      </c>
+      <c r="G25">
+        <v>50.33333333333334</v>
+      </c>
+      <c r="H25">
+        <v>29</v>
+      </c>
+      <c r="I25">
+        <v>69.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>20200225</v>
+      </c>
+      <c r="C26">
+        <v>5.916666666666667</v>
+      </c>
+      <c r="D26">
+        <v>30.29166666666667</v>
+      </c>
+      <c r="E26">
+        <v>0.9712499999999999</v>
+      </c>
+      <c r="F26">
+        <v>64.5</v>
+      </c>
+      <c r="G26">
+        <v>49.54166666666666</v>
+      </c>
+      <c r="H26">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>68.29166666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>20200226</v>
+      </c>
+      <c r="C27">
+        <v>7.5</v>
+      </c>
+      <c r="D27">
+        <v>31.08333333333333</v>
+      </c>
+      <c r="E27">
+        <v>1.02125</v>
+      </c>
+      <c r="F27">
+        <v>57.79166666666666</v>
+      </c>
+      <c r="G27">
+        <v>43.95833333333334</v>
+      </c>
+      <c r="H27">
+        <v>34</v>
+      </c>
+      <c r="I27">
+        <v>61.20833333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>20200227</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>31.875</v>
+      </c>
+      <c r="E28">
+        <v>1.035833333333333</v>
+      </c>
+      <c r="F28">
+        <v>61.58333333333334</v>
+      </c>
+      <c r="G28">
+        <v>47.125</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>65.33333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20200228</v>
+      </c>
+      <c r="C29">
+        <v>5.222222222222222</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>0.911111111111111</v>
+      </c>
+      <c r="F29">
+        <v>29.61111111111111</v>
+      </c>
+      <c r="G29">
+        <v>21.72222222222222</v>
+      </c>
+      <c r="H29">
+        <v>45</v>
+      </c>
+      <c r="I29">
+        <v>31.66666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>20200229</v>
+      </c>
+      <c r="C30">
+        <v>6.041666666666667</v>
+      </c>
+      <c r="D30">
+        <v>27.08333333333333</v>
+      </c>
+      <c r="E30">
+        <v>0.99125</v>
+      </c>
+      <c r="F30">
+        <v>38.66666666666666</v>
+      </c>
+      <c r="G30">
+        <v>28.58333333333333</v>
+      </c>
+      <c r="H30">
+        <v>64</v>
+      </c>
+      <c r="I30">
+        <v>40.83333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>20200301</v>
+      </c>
+      <c r="C31">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="D31">
+        <v>35.5</v>
+      </c>
+      <c r="E31">
+        <v>1.18375</v>
+      </c>
+      <c r="F31">
+        <v>56.25</v>
+      </c>
+      <c r="G31">
+        <v>41.91666666666666</v>
+      </c>
+      <c r="H31">
+        <v>56</v>
+      </c>
+      <c r="I31">
+        <v>58.875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>20200302</v>
+      </c>
+      <c r="C32">
+        <v>6.416666666666667</v>
+      </c>
+      <c r="D32">
+        <v>23.45833333333333</v>
+      </c>
+      <c r="E32">
+        <v>0.6608333333333333</v>
+      </c>
+      <c r="F32">
+        <v>45.66666666666666</v>
+      </c>
+      <c r="G32">
+        <v>31.5</v>
+      </c>
+      <c r="H32">
+        <v>68</v>
+      </c>
+      <c r="I32">
+        <v>47.33333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>20200303</v>
+      </c>
+      <c r="C33">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="D33">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="E33">
+        <v>0.6175</v>
+      </c>
+      <c r="F33">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="G33">
+        <v>20.91666666666667</v>
+      </c>
+      <c r="H33">
+        <v>56</v>
+      </c>
+      <c r="I33">
+        <v>30.04166666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20200304</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>26.5</v>
+      </c>
+      <c r="E34">
+        <v>0.64</v>
+      </c>
+      <c r="F34">
+        <v>28.04166666666667</v>
+      </c>
+      <c r="G34">
+        <v>20.875</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+      <c r="I34">
+        <v>30.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>20200305</v>
+      </c>
+      <c r="C35">
+        <v>7.208333333333333</v>
+      </c>
+      <c r="D35">
+        <v>28.125</v>
+      </c>
+      <c r="E35">
+        <v>0.6783333333333333</v>
+      </c>
+      <c r="F35">
+        <v>36.54166666666666</v>
+      </c>
+      <c r="G35">
+        <v>25.54166666666667</v>
+      </c>
+      <c r="H35">
+        <v>49</v>
+      </c>
+      <c r="I35">
+        <v>37.79166666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>20200306</v>
+      </c>
+      <c r="C36">
+        <v>8.041666666666666</v>
+      </c>
+      <c r="D36">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="E36">
+        <v>0.7012499999999999</v>
+      </c>
+      <c r="F36">
+        <v>54.5</v>
+      </c>
+      <c r="G36">
+        <v>35.66666666666666</v>
+      </c>
+      <c r="H36">
+        <v>61</v>
+      </c>
+      <c r="I36">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>20200307</v>
+      </c>
+      <c r="C37">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="D37">
+        <v>35.75</v>
+      </c>
+      <c r="E37">
+        <v>0.8870833333333333</v>
+      </c>
+      <c r="F37">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="G37">
+        <v>49.875</v>
+      </c>
+      <c r="H37">
+        <v>85</v>
+      </c>
+      <c r="I37">
+        <v>68.79166666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>20200308</v>
+      </c>
+      <c r="C38">
+        <v>7.458333333333333</v>
+      </c>
+      <c r="D38">
+        <v>33.625</v>
+      </c>
+      <c r="E38">
+        <v>0.8675</v>
+      </c>
+      <c r="F38">
+        <v>60.625</v>
+      </c>
+      <c r="G38">
+        <v>44.04166666666666</v>
+      </c>
+      <c r="H38">
+        <v>75</v>
+      </c>
+      <c r="I38">
+        <v>61.41666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>20200309</v>
+      </c>
+      <c r="C39">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D39">
+        <v>29.625</v>
+      </c>
+      <c r="E39">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="F39">
+        <v>73.91666666666667</v>
+      </c>
+      <c r="G39">
+        <v>45.91666666666666</v>
+      </c>
+      <c r="H39">
+        <v>68</v>
+      </c>
+      <c r="I39">
+        <v>69.41666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200310</v>
+      </c>
+      <c r="C40">
+        <v>7.458333333333333</v>
+      </c>
+      <c r="D40">
+        <v>34.375</v>
+      </c>
+      <c r="E40">
+        <v>0.58875</v>
+      </c>
+      <c r="F40">
+        <v>64.08333333333333</v>
+      </c>
+      <c r="G40">
+        <v>31.5</v>
+      </c>
+      <c r="H40">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>56.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>20200311</v>
+      </c>
+      <c r="C41">
+        <v>7.541666666666667</v>
+      </c>
+      <c r="D41">
+        <v>39.33333333333334</v>
+      </c>
+      <c r="E41">
+        <v>0.6729166666666666</v>
+      </c>
+      <c r="F41">
+        <v>71.45833333333333</v>
+      </c>
+      <c r="G41">
+        <v>39.25</v>
+      </c>
+      <c r="H41">
+        <v>54</v>
+      </c>
+      <c r="I41">
+        <v>60.95833333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>20200312</v>
+      </c>
+      <c r="C42">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D42">
+        <v>38</v>
+      </c>
+      <c r="E42">
+        <v>0.7204166666666666</v>
+      </c>
+      <c r="F42">
+        <v>62.25</v>
+      </c>
+      <c r="G42">
+        <v>37.41666666666666</v>
+      </c>
+      <c r="H42">
+        <v>65</v>
+      </c>
+      <c r="I42">
+        <v>57.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>20200313</v>
+      </c>
+      <c r="C43">
+        <v>10.54166666666667</v>
+      </c>
+      <c r="D43">
+        <v>51.83333333333334</v>
+      </c>
+      <c r="E43">
+        <v>0.9825</v>
+      </c>
+      <c r="F43">
+        <v>85.95833333333333</v>
+      </c>
+      <c r="G43">
+        <v>56.5</v>
+      </c>
+      <c r="H43">
+        <v>45</v>
+      </c>
+      <c r="I43">
+        <v>76.91666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>20200314</v>
+      </c>
+      <c r="C44">
+        <v>6.625</v>
+      </c>
+      <c r="D44">
+        <v>34.95833333333334</v>
+      </c>
+      <c r="E44">
+        <v>0.7041666666666666</v>
+      </c>
+      <c r="F44">
+        <v>53.83333333333334</v>
+      </c>
+      <c r="G44">
+        <v>34.625</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>51.875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>20200315</v>
+      </c>
+      <c r="C45">
+        <v>8.541666666666666</v>
+      </c>
+      <c r="D45">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="E45">
+        <v>0.8962500000000001</v>
+      </c>
+      <c r="F45">
+        <v>83.04166666666667</v>
+      </c>
+      <c r="G45">
+        <v>52.70833333333334</v>
+      </c>
+      <c r="H45">
+        <v>36</v>
+      </c>
+      <c r="I45">
+        <v>72.375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>20200316</v>
+      </c>
+      <c r="C46">
+        <v>8.833333333333334</v>
+      </c>
+      <c r="D46">
+        <v>44.08333333333334</v>
+      </c>
+      <c r="E46">
+        <v>0.9091666666666668</v>
+      </c>
+      <c r="F46">
+        <v>95.54166666666669</v>
+      </c>
+      <c r="G46">
+        <v>66.45833333333333</v>
+      </c>
+      <c r="H46">
+        <v>22</v>
+      </c>
+      <c r="I46">
+        <v>89.41666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>20200317</v>
+      </c>
+      <c r="C47">
+        <v>6.583333333333333</v>
+      </c>
+      <c r="D47">
+        <v>34.875</v>
+      </c>
+      <c r="E47">
+        <v>0.6425</v>
+      </c>
+      <c r="F47">
+        <v>58.375</v>
+      </c>
+      <c r="G47">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="H47">
+        <v>70</v>
+      </c>
+      <c r="I47">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>20200318</v>
+      </c>
+      <c r="C48">
+        <v>8.619047619047619</v>
+      </c>
+      <c r="D48">
+        <v>46.04761904761905</v>
+      </c>
+      <c r="E48">
+        <v>0.7309523809523809</v>
+      </c>
+      <c r="F48">
+        <v>61.85714285714285</v>
+      </c>
+      <c r="G48">
+        <v>34.71428571428572</v>
+      </c>
+      <c r="H48">
+        <v>97</v>
+      </c>
+      <c r="I48">
+        <v>56.14285714285715</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>20200319</v>
+      </c>
+      <c r="C49">
+        <v>10.75</v>
+      </c>
+      <c r="D49">
+        <v>56.16666666666666</v>
+      </c>
+      <c r="E49">
+        <v>0.7691666666666667</v>
+      </c>
+      <c r="F49">
+        <v>70.125</v>
+      </c>
+      <c r="G49">
+        <v>38.375</v>
+      </c>
+      <c r="H49">
+        <v>125</v>
+      </c>
+      <c r="I49">
+        <v>60.20833333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>20200320</v>
+      </c>
+      <c r="C50">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="D50">
+        <v>58.58333333333334</v>
+      </c>
+      <c r="E50">
+        <v>0.8891666666666667</v>
+      </c>
+      <c r="F50">
+        <v>79.33333333333333</v>
+      </c>
+      <c r="G50">
+        <v>42.20833333333334</v>
+      </c>
+      <c r="H50">
+        <v>133</v>
+      </c>
+      <c r="I50">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>20200321</v>
+      </c>
+      <c r="C51">
+        <v>13.625</v>
+      </c>
+      <c r="D51">
+        <v>46.33333333333334</v>
+      </c>
+      <c r="E51">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="F51">
+        <v>85.75</v>
+      </c>
+      <c r="G51">
+        <v>50.66666666666666</v>
+      </c>
+      <c r="H51">
+        <v>157</v>
+      </c>
+      <c r="I51">
+        <v>71.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>20200322</v>
+      </c>
+      <c r="C52">
+        <v>10.29166666666667</v>
+      </c>
+      <c r="D52">
+        <v>35.5</v>
+      </c>
+      <c r="E52">
+        <v>0.6445833333333334</v>
+      </c>
+      <c r="F52">
+        <v>61.5</v>
+      </c>
+      <c r="G52">
+        <v>37.29166666666666</v>
+      </c>
+      <c r="H52">
+        <v>130</v>
+      </c>
+      <c r="I52">
+        <v>56.91666666666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>20200323</v>
+      </c>
+      <c r="C53">
+        <v>10.45833333333333</v>
+      </c>
+      <c r="D53">
+        <v>43.54166666666666</v>
+      </c>
+      <c r="E53">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="F53">
+        <v>67.66666666666667</v>
+      </c>
+      <c r="G53">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="H53">
+        <v>120</v>
+      </c>
+      <c r="I53">
+        <v>59.20833333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>20200324</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>36.45833333333334</v>
+      </c>
+      <c r="E54">
+        <v>0.7995833333333334</v>
+      </c>
+      <c r="F54">
+        <v>55</v>
+      </c>
+      <c r="G54">
+        <v>33.70833333333334</v>
+      </c>
+      <c r="H54">
+        <v>122</v>
+      </c>
+      <c r="I54">
+        <v>52.16666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>20200325</v>
+      </c>
+      <c r="C55">
+        <v>8.041666666666666</v>
+      </c>
+      <c r="D55">
+        <v>31.625</v>
+      </c>
+      <c r="E55">
+        <v>0.7920833333333334</v>
+      </c>
+      <c r="F55">
+        <v>55.45833333333334</v>
+      </c>
+      <c r="G55">
+        <v>35.79166666666666</v>
+      </c>
+      <c r="H55">
+        <v>122</v>
+      </c>
+      <c r="I55">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>20200326</v>
+      </c>
+      <c r="C56">
+        <v>8.416666666666666</v>
+      </c>
+      <c r="D56">
+        <v>42</v>
+      </c>
+      <c r="E56">
+        <v>0.8766666666666666</v>
+      </c>
+      <c r="F56">
+        <v>79.25</v>
+      </c>
+      <c r="G56">
+        <v>44.04166666666666</v>
+      </c>
+      <c r="H56">
+        <v>129</v>
+      </c>
+      <c r="I56">
+        <v>66.20833333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>20200327</v>
+      </c>
+      <c r="C57">
+        <v>5.625</v>
+      </c>
+      <c r="D57">
+        <v>24.95833333333333</v>
+      </c>
+      <c r="E57">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="F57">
+        <v>66.08333333333333</v>
+      </c>
+      <c r="G57">
+        <v>30.875</v>
+      </c>
+      <c r="H57">
+        <v>87</v>
+      </c>
+      <c r="I57">
+        <v>51.29166666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>20200328</v>
+      </c>
+      <c r="C58">
+        <v>5.541666666666667</v>
+      </c>
+      <c r="D58">
+        <v>23.16666666666667</v>
+      </c>
+      <c r="E58">
+        <v>0.5966666666666667</v>
+      </c>
+      <c r="F58">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="G58">
+        <v>14.83333333333333</v>
+      </c>
+      <c r="H58">
+        <v>36</v>
+      </c>
+      <c r="I58">
+        <v>21.70833333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>20200329</v>
+      </c>
+      <c r="C59">
+        <v>5.916666666666667</v>
+      </c>
+      <c r="D59">
+        <v>28.04166666666667</v>
+      </c>
+      <c r="E59">
+        <v>0.5045833333333333</v>
+      </c>
+      <c r="F59">
+        <v>28.70833333333333</v>
+      </c>
+      <c r="G59">
+        <v>18.5</v>
+      </c>
+      <c r="H59">
+        <v>48</v>
+      </c>
+      <c r="I59">
+        <v>29.58333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>20200330</v>
+      </c>
+      <c r="C60">
+        <v>6.458333333333333</v>
+      </c>
+      <c r="D60">
+        <v>33.25</v>
+      </c>
+      <c r="E60">
+        <v>0.6408333333333334</v>
+      </c>
+      <c r="F60">
+        <v>35.75</v>
+      </c>
+      <c r="G60">
+        <v>24.625</v>
+      </c>
+      <c r="H60">
+        <v>35</v>
+      </c>
+      <c r="I60">
+        <v>36.33333333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>20200331</v>
+      </c>
+      <c r="C61">
+        <v>7.291666666666667</v>
+      </c>
+      <c r="D61">
+        <v>36.91666666666666</v>
+      </c>
+      <c r="E61">
+        <v>0.6775000000000001</v>
+      </c>
+      <c r="F61">
+        <v>44.45833333333334</v>
+      </c>
+      <c r="G61">
+        <v>28.125</v>
+      </c>
+      <c r="H61">
+        <v>73</v>
+      </c>
+      <c r="I61">
+        <v>44.08333333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20200401</v>
+      </c>
+      <c r="C62">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D62">
+        <v>44.33333333333334</v>
+      </c>
+      <c r="E62">
+        <v>0.7891666666666667</v>
+      </c>
+      <c r="F62">
+        <v>48.29166666666666</v>
+      </c>
+      <c r="G62">
+        <v>30.54166666666667</v>
+      </c>
+      <c r="H62">
+        <v>55</v>
+      </c>
+      <c r="I62">
+        <v>47.83333333333334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>20200402</v>
+      </c>
+      <c r="C63">
+        <v>9.208333333333334</v>
+      </c>
+      <c r="D63">
+        <v>45.20833333333334</v>
+      </c>
+      <c r="E63">
+        <v>0.8058333333333333</v>
+      </c>
+      <c r="F63">
+        <v>52.04166666666666</v>
+      </c>
+      <c r="G63">
+        <v>31.45833333333333</v>
+      </c>
+      <c r="H63">
+        <v>28</v>
+      </c>
+      <c r="I63">
+        <v>50.375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>20200403</v>
+      </c>
+      <c r="C64">
+        <v>9.625</v>
+      </c>
+      <c r="D64">
+        <v>40.75</v>
+      </c>
+      <c r="E64">
+        <v>0.7204166666666666</v>
+      </c>
+      <c r="F64">
+        <v>52.25</v>
+      </c>
+      <c r="G64">
+        <v>33.16666666666666</v>
+      </c>
+      <c r="H64">
+        <v>34</v>
+      </c>
+      <c r="I64">
+        <v>51.20833333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>20200404</v>
+      </c>
+      <c r="C65">
+        <v>6.791666666666667</v>
+      </c>
+      <c r="D65">
+        <v>40.625</v>
+      </c>
+      <c r="E65">
+        <v>0.7341666666666667</v>
+      </c>
+      <c r="F65">
+        <v>52.58333333333334</v>
+      </c>
+      <c r="G65">
+        <v>36.04166666666666</v>
+      </c>
+      <c r="H65">
+        <v>28</v>
+      </c>
+      <c r="I65">
+        <v>52.29166666666666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>20200405</v>
+      </c>
+      <c r="C66">
+        <v>5.25</v>
+      </c>
+      <c r="D66">
+        <v>38.75</v>
+      </c>
+      <c r="E66">
+        <v>0.7891666666666667</v>
+      </c>
+      <c r="F66">
+        <v>45.45833333333334</v>
+      </c>
+      <c r="G66">
+        <v>34.54166666666666</v>
+      </c>
+      <c r="H66">
+        <v>22</v>
+      </c>
+      <c r="I66">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>20200406</v>
+      </c>
+      <c r="C67">
+        <v>5.958333333333333</v>
+      </c>
+      <c r="D67">
+        <v>48.125</v>
+      </c>
+      <c r="E67">
+        <v>0.8391666666666667</v>
+      </c>
+      <c r="F67">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="G67">
+        <v>37.95833333333334</v>
+      </c>
+      <c r="H67">
+        <v>41</v>
+      </c>
+      <c r="I67">
+        <v>54.54166666666666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>20200407</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>53.70833333333334</v>
+      </c>
+      <c r="E68">
+        <v>1.021666666666667</v>
+      </c>
+      <c r="F68">
+        <v>64.41666666666667</v>
+      </c>
+      <c r="G68">
+        <v>37.70833333333334</v>
+      </c>
+      <c r="H68">
+        <v>86</v>
+      </c>
+      <c r="I68">
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>20200408</v>
+      </c>
+      <c r="C69">
+        <v>7.958333333333333</v>
+      </c>
+      <c r="D69">
+        <v>52.41666666666666</v>
+      </c>
+      <c r="E69">
+        <v>0.9908333333333332</v>
+      </c>
+      <c r="F69">
+        <v>65.375</v>
+      </c>
+      <c r="G69">
+        <v>43.125</v>
+      </c>
+      <c r="H69">
+        <v>88</v>
+      </c>
+      <c r="I69">
+        <v>61.70833333333334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>20200409</v>
+      </c>
+      <c r="C70">
+        <v>9.043478260869565</v>
+      </c>
+      <c r="D70">
+        <v>52.69565217391305</v>
+      </c>
+      <c r="E70">
+        <v>0.9465217391304348</v>
+      </c>
+      <c r="F70">
+        <v>60.39130434782609</v>
+      </c>
+      <c r="G70">
+        <v>34.60869565217391</v>
+      </c>
+      <c r="H70">
+        <v>97</v>
+      </c>
+      <c r="I70">
+        <v>54.65217391304348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>20200410</v>
+      </c>
+      <c r="C71">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D71">
+        <v>44.79166666666666</v>
+      </c>
+      <c r="E71">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="F71">
+        <v>54.375</v>
+      </c>
+      <c r="G71">
+        <v>34.33333333333334</v>
+      </c>
+      <c r="H71">
+        <v>70</v>
+      </c>
+      <c r="I71">
+        <v>52.125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>20200411</v>
+      </c>
+      <c r="C72">
+        <v>6.541666666666667</v>
+      </c>
+      <c r="D72">
+        <v>31.45833333333333</v>
+      </c>
+      <c r="E72">
+        <v>0.7025</v>
+      </c>
+      <c r="F72">
+        <v>31.08333333333333</v>
+      </c>
+      <c r="G72">
+        <v>20</v>
+      </c>
+      <c r="H72">
+        <v>84</v>
+      </c>
+      <c r="I72">
+        <v>32.45833333333334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>20200412</v>
+      </c>
+      <c r="C73">
+        <v>8.375</v>
+      </c>
+      <c r="D73">
+        <v>42.83333333333334</v>
+      </c>
+      <c r="E73">
+        <v>0.7870833333333334</v>
+      </c>
+      <c r="F73">
+        <v>51.20833333333334</v>
+      </c>
+      <c r="G73">
+        <v>24.45833333333333</v>
+      </c>
+      <c r="H73">
+        <v>125</v>
+      </c>
+      <c r="I73">
+        <v>48.20833333333334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>20200413</v>
+      </c>
+      <c r="C74">
+        <v>9.083333333333334</v>
+      </c>
+      <c r="D74">
+        <v>61.58333333333334</v>
+      </c>
+      <c r="E74">
+        <v>0.8404166666666666</v>
+      </c>
+      <c r="F74">
+        <v>67.29166666666667</v>
+      </c>
+      <c r="G74">
+        <v>33.08333333333334</v>
+      </c>
+      <c r="H74">
+        <v>84</v>
+      </c>
+      <c r="I74">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>20200414</v>
+      </c>
+      <c r="C75">
+        <v>9.041666666666666</v>
+      </c>
+      <c r="D75">
+        <v>49.66666666666666</v>
+      </c>
+      <c r="E75">
+        <v>0.775</v>
+      </c>
+      <c r="F75">
+        <v>69.29166666666667</v>
+      </c>
+      <c r="G75">
+        <v>40.125</v>
+      </c>
+      <c r="H75">
+        <v>118</v>
+      </c>
+      <c r="I75">
+        <v>60.91666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>20200415</v>
+      </c>
+      <c r="C76">
+        <v>10.91666666666667</v>
+      </c>
+      <c r="D76">
+        <v>61.58333333333334</v>
+      </c>
+      <c r="E76">
+        <v>0.8320833333333333</v>
+      </c>
+      <c r="F76">
+        <v>70.45833333333333</v>
+      </c>
+      <c r="G76">
+        <v>37.33333333333334</v>
+      </c>
+      <c r="H76">
+        <v>144</v>
+      </c>
+      <c r="I76">
+        <v>61.04166666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>20200416</v>
+      </c>
+      <c r="C77">
+        <v>16.45833333333333</v>
+      </c>
+      <c r="D77">
+        <v>72.54166666666667</v>
+      </c>
+      <c r="E77">
+        <v>0.9983333333333334</v>
+      </c>
+      <c r="F77">
+        <v>98.125</v>
+      </c>
+      <c r="G77">
+        <v>52.33333333333334</v>
+      </c>
+      <c r="H77">
+        <v>161</v>
+      </c>
+      <c r="I77">
+        <v>78.41666666666667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>20200417</v>
+      </c>
+      <c r="C78">
+        <v>14.125</v>
+      </c>
+      <c r="D78">
+        <v>68.625</v>
+      </c>
+      <c r="E78">
+        <v>1.038333333333333</v>
+      </c>
+      <c r="F78">
+        <v>106.875</v>
+      </c>
+      <c r="G78">
+        <v>60.70833333333334</v>
+      </c>
+      <c r="H78">
+        <v>115</v>
+      </c>
+      <c r="I78">
+        <v>83.79166666666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>20200418</v>
+      </c>
+      <c r="C79">
+        <v>5.25</v>
+      </c>
+      <c r="D79">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="E79">
+        <v>0.7254166666666667</v>
+      </c>
+      <c r="F79">
+        <v>38.95833333333334</v>
+      </c>
+      <c r="G79">
+        <v>26.58333333333333</v>
+      </c>
+      <c r="H79">
+        <v>38</v>
+      </c>
+      <c r="I79">
+        <v>39.625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>20200419</v>
+      </c>
+      <c r="C80">
+        <v>6.125</v>
+      </c>
+      <c r="D80">
+        <v>31.45833333333333</v>
+      </c>
+      <c r="E80">
+        <v>0.7312500000000001</v>
+      </c>
+      <c r="F80">
+        <v>35</v>
+      </c>
+      <c r="G80">
+        <v>22.41666666666667</v>
+      </c>
+      <c r="H80">
+        <v>57</v>
+      </c>
+      <c r="I80">
+        <v>35.20833333333334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>20200420</v>
+      </c>
+      <c r="C81">
+        <v>5.458333333333333</v>
+      </c>
+      <c r="D81">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="E81">
+        <v>0.6995833333333333</v>
+      </c>
+      <c r="F81">
+        <v>34.5</v>
+      </c>
+      <c r="G81">
+        <v>23.04166666666667</v>
+      </c>
+      <c r="H81">
+        <v>44</v>
+      </c>
+      <c r="I81">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>20200421</v>
+      </c>
+      <c r="C82">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="D82">
+        <v>32.375</v>
+      </c>
+      <c r="E82">
+        <v>0.5829166666666666</v>
+      </c>
+      <c r="F82">
+        <v>21.70833333333333</v>
+      </c>
+      <c r="G82">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="H82">
+        <v>35</v>
+      </c>
+      <c r="I82">
+        <v>23.20833333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>20200422</v>
+      </c>
+      <c r="C83">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="D83">
+        <v>27.875</v>
+      </c>
+      <c r="E83">
+        <v>0.5437500000000001</v>
+      </c>
+      <c r="F83">
+        <v>18.5</v>
+      </c>
+      <c r="G83">
+        <v>14.41666666666667</v>
+      </c>
+      <c r="H83">
+        <v>52</v>
+      </c>
+      <c r="I83">
+        <v>21.16666666666667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>20200423</v>
+      </c>
+      <c r="C84">
+        <v>4.875</v>
+      </c>
+      <c r="D84">
+        <v>29.29166666666667</v>
+      </c>
+      <c r="E84">
+        <v>0.5254166666666666</v>
+      </c>
+      <c r="F84">
+        <v>25.54166666666667</v>
+      </c>
+      <c r="G84">
+        <v>19</v>
+      </c>
+      <c r="H84">
+        <v>67</v>
+      </c>
+      <c r="I84">
+        <v>27.625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>20200424</v>
+      </c>
+      <c r="C85">
+        <v>5.875</v>
+      </c>
+      <c r="D85">
+        <v>36.29166666666666</v>
+      </c>
+      <c r="E85">
+        <v>0.62375</v>
+      </c>
+      <c r="F85">
+        <v>40.625</v>
+      </c>
+      <c r="G85">
+        <v>27.08333333333333</v>
+      </c>
+      <c r="H85">
+        <v>90</v>
+      </c>
+      <c r="I85">
+        <v>40.70833333333334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>20200425</v>
+      </c>
+      <c r="C86">
+        <v>8.956521739130435</v>
+      </c>
+      <c r="D86">
+        <v>52.65217391304348</v>
+      </c>
+      <c r="E86">
+        <v>0.7817391304347826</v>
+      </c>
+      <c r="F86">
+        <v>54.34782608695652</v>
+      </c>
+      <c r="G86">
+        <v>31.82608695652174</v>
+      </c>
+      <c r="H86">
+        <v>73</v>
+      </c>
+      <c r="I86">
+        <v>51.47826086956522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>20200426</v>
+      </c>
+      <c r="C87">
+        <v>10.29166666666667</v>
+      </c>
+      <c r="D87">
+        <v>53.375</v>
+      </c>
+      <c r="E87">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F87">
+        <v>54</v>
+      </c>
+      <c r="G87">
+        <v>27.95833333333333</v>
+      </c>
+      <c r="H87">
+        <v>122</v>
+      </c>
+      <c r="I87">
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>20200427</v>
+      </c>
+      <c r="C88">
+        <v>10.20833333333333</v>
+      </c>
+      <c r="D88">
+        <v>71.875</v>
+      </c>
+      <c r="E88">
+        <v>0.8975</v>
+      </c>
+      <c r="F88">
+        <v>75.54166666666667</v>
+      </c>
+      <c r="G88">
+        <v>37.125</v>
+      </c>
+      <c r="H88">
+        <v>167</v>
+      </c>
+      <c r="I88">
+        <v>69.375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>20200428</v>
+      </c>
+      <c r="C89">
+        <v>11.79166666666667</v>
+      </c>
+      <c r="D89">
+        <v>74.625</v>
+      </c>
+      <c r="E89">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="F89">
+        <v>77.125</v>
+      </c>
+      <c r="G89">
+        <v>34.20833333333334</v>
+      </c>
+      <c r="H89">
+        <v>163</v>
+      </c>
+      <c r="I89">
+        <v>69.45833333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>20200429</v>
+      </c>
+      <c r="C90">
+        <v>13.79166666666667</v>
+      </c>
+      <c r="D90">
+        <v>71.66666666666667</v>
+      </c>
+      <c r="E90">
+        <v>0.92125</v>
+      </c>
+      <c r="F90">
+        <v>78.08333333333333</v>
+      </c>
+      <c r="G90">
+        <v>33.79166666666666</v>
+      </c>
+      <c r="H90">
+        <v>157</v>
+      </c>
+      <c r="I90">
+        <v>67.875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>20200430</v>
+      </c>
+      <c r="C91">
+        <v>7.291666666666667</v>
+      </c>
+      <c r="D91">
+        <v>49.25</v>
+      </c>
+      <c r="E91">
+        <v>0.8725000000000001</v>
+      </c>
+      <c r="F91">
+        <v>79.75</v>
+      </c>
+      <c r="G91">
+        <v>54.29166666666666</v>
+      </c>
+      <c r="H91">
+        <v>127</v>
+      </c>
+      <c r="I91">
+        <v>75.375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -484,7 +4895,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -519,6 +4930,1775 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20200501</v>
+      </c>
+      <c r="C2">
+        <v>7.958333333333333</v>
+      </c>
+      <c r="D2">
+        <v>49.5</v>
+      </c>
+      <c r="E2">
+        <v>0.915</v>
+      </c>
+      <c r="F2">
+        <v>70.125</v>
+      </c>
+      <c r="G2">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="H2">
+        <v>162</v>
+      </c>
+      <c r="I2">
+        <v>69.58333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20200502</v>
+      </c>
+      <c r="C3">
+        <v>9.125</v>
+      </c>
+      <c r="D3">
+        <v>58.83333333333334</v>
+      </c>
+      <c r="E3">
+        <v>0.8933333333333334</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>40.04166666666666</v>
+      </c>
+      <c r="H3">
+        <v>188</v>
+      </c>
+      <c r="I3">
+        <v>73.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20200503</v>
+      </c>
+      <c r="C4">
+        <v>11.75</v>
+      </c>
+      <c r="D4">
+        <v>59.125</v>
+      </c>
+      <c r="E4">
+        <v>0.8066666666666666</v>
+      </c>
+      <c r="F4">
+        <v>73.70833333333333</v>
+      </c>
+      <c r="G4">
+        <v>36.70833333333334</v>
+      </c>
+      <c r="H4">
+        <v>204</v>
+      </c>
+      <c r="I4">
+        <v>76.29166666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20200504</v>
+      </c>
+      <c r="C5">
+        <v>10.375</v>
+      </c>
+      <c r="D5">
+        <v>44.41666666666666</v>
+      </c>
+      <c r="E5">
+        <v>0.7212499999999999</v>
+      </c>
+      <c r="F5">
+        <v>64.16666666666667</v>
+      </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>171</v>
+      </c>
+      <c r="I5">
+        <v>65.20833333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20200505</v>
+      </c>
+      <c r="C6">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="D6">
+        <v>35.70833333333334</v>
+      </c>
+      <c r="E6">
+        <v>0.6862499999999999</v>
+      </c>
+      <c r="F6">
+        <v>52.25</v>
+      </c>
+      <c r="G6">
+        <v>26.04166666666667</v>
+      </c>
+      <c r="H6">
+        <v>203</v>
+      </c>
+      <c r="I6">
+        <v>62.45833333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20200506</v>
+      </c>
+      <c r="C7">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D7">
+        <v>24.125</v>
+      </c>
+      <c r="E7">
+        <v>0.6433333333333333</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20200507</v>
+      </c>
+      <c r="C8">
+        <v>8.416666666666666</v>
+      </c>
+      <c r="D8">
+        <v>26.45833333333333</v>
+      </c>
+      <c r="E8">
+        <v>0.66625</v>
+      </c>
+      <c r="F8">
+        <v>35.08333333333334</v>
+      </c>
+      <c r="G8">
+        <v>17.75</v>
+      </c>
+      <c r="H8">
+        <v>151</v>
+      </c>
+      <c r="I8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20200508</v>
+      </c>
+      <c r="C9">
+        <v>6.75</v>
+      </c>
+      <c r="D9">
+        <v>24.5</v>
+      </c>
+      <c r="E9">
+        <v>0.67125</v>
+      </c>
+      <c r="F9">
+        <v>33.66666666666666</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>103</v>
+      </c>
+      <c r="I9">
+        <v>34.79166666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20200509</v>
+      </c>
+      <c r="C10">
+        <v>6.791666666666667</v>
+      </c>
+      <c r="D10">
+        <v>32.41666666666666</v>
+      </c>
+      <c r="E10">
+        <v>0.5883333333333333</v>
+      </c>
+      <c r="F10">
+        <v>43.54166666666666</v>
+      </c>
+      <c r="G10">
+        <v>21.29166666666667</v>
+      </c>
+      <c r="H10">
+        <v>86</v>
+      </c>
+      <c r="I10">
+        <v>42.45833333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20200510</v>
+      </c>
+      <c r="C11">
+        <v>8.5</v>
+      </c>
+      <c r="D11">
+        <v>32.5</v>
+      </c>
+      <c r="E11">
+        <v>0.51375</v>
+      </c>
+      <c r="F11">
+        <v>44.70833333333334</v>
+      </c>
+      <c r="G11">
+        <v>22.29166666666667</v>
+      </c>
+      <c r="H11">
+        <v>153</v>
+      </c>
+      <c r="I11">
+        <v>47.79166666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20200511</v>
+      </c>
+      <c r="C12">
+        <v>7.416666666666667</v>
+      </c>
+      <c r="D12">
+        <v>42.70833333333334</v>
+      </c>
+      <c r="E12">
+        <v>0.6266666666666666</v>
+      </c>
+      <c r="F12">
+        <v>51.125</v>
+      </c>
+      <c r="G12">
+        <v>27.25</v>
+      </c>
+      <c r="H12">
+        <v>124</v>
+      </c>
+      <c r="I12">
+        <v>49.08333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>20200512</v>
+      </c>
+      <c r="C13">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="D13">
+        <v>42.54166666666666</v>
+      </c>
+      <c r="E13">
+        <v>0.7216666666666667</v>
+      </c>
+      <c r="F13">
+        <v>61.16666666666666</v>
+      </c>
+      <c r="G13">
+        <v>30.08333333333333</v>
+      </c>
+      <c r="H13">
+        <v>105</v>
+      </c>
+      <c r="I13">
+        <v>55.79166666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>20200513</v>
+      </c>
+      <c r="C14">
+        <v>7.304347826086956</v>
+      </c>
+      <c r="D14">
+        <v>43.26086956521739</v>
+      </c>
+      <c r="E14">
+        <v>0.6817391304347826</v>
+      </c>
+      <c r="F14">
+        <v>69.8695652173913</v>
+      </c>
+      <c r="G14">
+        <v>37.21739130434783</v>
+      </c>
+      <c r="H14">
+        <v>79</v>
+      </c>
+      <c r="I14">
+        <v>60.21739130434783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20200514</v>
+      </c>
+      <c r="C15">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D15">
+        <v>42.70833333333334</v>
+      </c>
+      <c r="E15">
+        <v>0.80625</v>
+      </c>
+      <c r="F15">
+        <v>51.83333333333334</v>
+      </c>
+      <c r="G15">
+        <v>34.66666666666666</v>
+      </c>
+      <c r="H15">
+        <v>53</v>
+      </c>
+      <c r="I15">
+        <v>50.95833333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>20200515</v>
+      </c>
+      <c r="C16">
+        <v>6.458333333333333</v>
+      </c>
+      <c r="D16">
+        <v>35.29166666666666</v>
+      </c>
+      <c r="E16">
+        <v>0.8325</v>
+      </c>
+      <c r="F16">
+        <v>37.83333333333334</v>
+      </c>
+      <c r="G16">
+        <v>23.41666666666667</v>
+      </c>
+      <c r="H16">
+        <v>150</v>
+      </c>
+      <c r="I16">
+        <v>43.58333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20200516</v>
+      </c>
+      <c r="C17">
+        <v>6.5</v>
+      </c>
+      <c r="D17">
+        <v>40.04166666666666</v>
+      </c>
+      <c r="E17">
+        <v>0.775</v>
+      </c>
+      <c r="F17">
+        <v>49.41666666666666</v>
+      </c>
+      <c r="G17">
+        <v>28.75</v>
+      </c>
+      <c r="H17">
+        <v>142</v>
+      </c>
+      <c r="I17">
+        <v>49.41666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20200517</v>
+      </c>
+      <c r="C18">
+        <v>10.29166666666667</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>0.7945833333333333</v>
+      </c>
+      <c r="F18">
+        <v>62.95833333333334</v>
+      </c>
+      <c r="G18">
+        <v>34.58333333333334</v>
+      </c>
+      <c r="H18">
+        <v>147</v>
+      </c>
+      <c r="I18">
+        <v>58.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>20200518</v>
+      </c>
+      <c r="C19">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="D19">
+        <v>53.66666666666666</v>
+      </c>
+      <c r="E19">
+        <v>0.8629166666666667</v>
+      </c>
+      <c r="F19">
+        <v>70.04166666666667</v>
+      </c>
+      <c r="G19">
+        <v>33.58333333333334</v>
+      </c>
+      <c r="H19">
+        <v>193</v>
+      </c>
+      <c r="I19">
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20200519</v>
+      </c>
+      <c r="C20">
+        <v>7.625</v>
+      </c>
+      <c r="D20">
+        <v>39.83333333333334</v>
+      </c>
+      <c r="E20">
+        <v>0.6616666666666667</v>
+      </c>
+      <c r="F20">
+        <v>56.08333333333334</v>
+      </c>
+      <c r="G20">
+        <v>26.29166666666667</v>
+      </c>
+      <c r="H20">
+        <v>135</v>
+      </c>
+      <c r="I20">
+        <v>52.29166666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>20200520</v>
+      </c>
+      <c r="C21">
+        <v>5.875</v>
+      </c>
+      <c r="D21">
+        <v>27.58333333333333</v>
+      </c>
+      <c r="E21">
+        <v>0.65125</v>
+      </c>
+      <c r="F21">
+        <v>44.875</v>
+      </c>
+      <c r="G21">
+        <v>25.5</v>
+      </c>
+      <c r="H21">
+        <v>88</v>
+      </c>
+      <c r="I21">
+        <v>44.58333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20200521</v>
+      </c>
+      <c r="C22">
+        <v>5.458333333333333</v>
+      </c>
+      <c r="D22">
+        <v>36.08333333333334</v>
+      </c>
+      <c r="E22">
+        <v>0.7541666666666668</v>
+      </c>
+      <c r="F22">
+        <v>41.125</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>67</v>
+      </c>
+      <c r="I22">
+        <v>41.20833333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>20200522</v>
+      </c>
+      <c r="C23">
+        <v>6.208333333333333</v>
+      </c>
+      <c r="D23">
+        <v>39.125</v>
+      </c>
+      <c r="E23">
+        <v>0.7570833333333334</v>
+      </c>
+      <c r="F23">
+        <v>56.20833333333334</v>
+      </c>
+      <c r="G23">
+        <v>33.125</v>
+      </c>
+      <c r="H23">
+        <v>137</v>
+      </c>
+      <c r="I23">
+        <v>53.33333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>20200523</v>
+      </c>
+      <c r="C24">
+        <v>7.208333333333333</v>
+      </c>
+      <c r="D24">
+        <v>57.16666666666666</v>
+      </c>
+      <c r="E24">
+        <v>0.8341666666666666</v>
+      </c>
+      <c r="F24">
+        <v>70.58333333333333</v>
+      </c>
+      <c r="G24">
+        <v>34.20833333333334</v>
+      </c>
+      <c r="H24">
+        <v>226</v>
+      </c>
+      <c r="I24">
+        <v>77.70833333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>20200524</v>
+      </c>
+      <c r="C25">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="D25">
+        <v>48.20833333333334</v>
+      </c>
+      <c r="E25">
+        <v>0.7591666666666667</v>
+      </c>
+      <c r="F25">
+        <v>61.66666666666666</v>
+      </c>
+      <c r="G25">
+        <v>33.41666666666666</v>
+      </c>
+      <c r="H25">
+        <v>157</v>
+      </c>
+      <c r="I25">
+        <v>53.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>20200525</v>
+      </c>
+      <c r="C26">
+        <v>5.208333333333333</v>
+      </c>
+      <c r="D26">
+        <v>27.95833333333333</v>
+      </c>
+      <c r="E26">
+        <v>0.5579166666666667</v>
+      </c>
+      <c r="F26">
+        <v>26.375</v>
+      </c>
+      <c r="G26">
+        <v>16.29166666666667</v>
+      </c>
+      <c r="H26">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>20200526</v>
+      </c>
+      <c r="C27">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D27">
+        <v>47.54166666666666</v>
+      </c>
+      <c r="E27">
+        <v>0.6870833333333333</v>
+      </c>
+      <c r="F27">
+        <v>45.95833333333334</v>
+      </c>
+      <c r="G27">
+        <v>23.04166666666667</v>
+      </c>
+      <c r="H27">
+        <v>55</v>
+      </c>
+      <c r="I27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>20200527</v>
+      </c>
+      <c r="C28">
+        <v>8.083333333333334</v>
+      </c>
+      <c r="D28">
+        <v>46.33333333333334</v>
+      </c>
+      <c r="E28">
+        <v>0.6745833333333334</v>
+      </c>
+      <c r="F28">
+        <v>57.625</v>
+      </c>
+      <c r="G28">
+        <v>33.79166666666666</v>
+      </c>
+      <c r="H28">
+        <v>92</v>
+      </c>
+      <c r="I28">
+        <v>54.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20200528</v>
+      </c>
+      <c r="C29">
+        <v>7.25</v>
+      </c>
+      <c r="D29">
+        <v>37.29166666666666</v>
+      </c>
+      <c r="E29">
+        <v>0.6054166666666666</v>
+      </c>
+      <c r="F29">
+        <v>45.75</v>
+      </c>
+      <c r="G29">
+        <v>28.58333333333333</v>
+      </c>
+      <c r="H29">
+        <v>85</v>
+      </c>
+      <c r="I29">
+        <v>45.58333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>20200529</v>
+      </c>
+      <c r="C30">
+        <v>7.041666666666667</v>
+      </c>
+      <c r="D30">
+        <v>43.95833333333334</v>
+      </c>
+      <c r="E30">
+        <v>0.7287500000000001</v>
+      </c>
+      <c r="F30">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="G30">
+        <v>28.20833333333333</v>
+      </c>
+      <c r="H30">
+        <v>156</v>
+      </c>
+      <c r="I30">
+        <v>52.95833333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>20200530</v>
+      </c>
+      <c r="C31">
+        <v>9.041666666666666</v>
+      </c>
+      <c r="D31">
+        <v>49.95833333333334</v>
+      </c>
+      <c r="E31">
+        <v>0.7133333333333334</v>
+      </c>
+      <c r="F31">
+        <v>51</v>
+      </c>
+      <c r="G31">
+        <v>24.29166666666667</v>
+      </c>
+      <c r="H31">
+        <v>153</v>
+      </c>
+      <c r="I31">
+        <v>53.54166666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>20200531</v>
+      </c>
+      <c r="C32">
+        <v>6.375</v>
+      </c>
+      <c r="D32">
+        <v>39.95833333333334</v>
+      </c>
+      <c r="E32">
+        <v>0.69625</v>
+      </c>
+      <c r="F32">
+        <v>38.5</v>
+      </c>
+      <c r="G32">
+        <v>21.20833333333333</v>
+      </c>
+      <c r="H32">
+        <v>97</v>
+      </c>
+      <c r="I32">
+        <v>39.20833333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>20200601</v>
+      </c>
+      <c r="C33">
+        <v>6.541666666666667</v>
+      </c>
+      <c r="D33">
+        <v>38.625</v>
+      </c>
+      <c r="E33">
+        <v>0.7941666666666666</v>
+      </c>
+      <c r="F33">
+        <v>41.29166666666666</v>
+      </c>
+      <c r="G33">
+        <v>22.29166666666667</v>
+      </c>
+      <c r="H33">
+        <v>155</v>
+      </c>
+      <c r="I33">
+        <v>48.41666666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20200602</v>
+      </c>
+      <c r="C34">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>0.53125</v>
+      </c>
+      <c r="F34">
+        <v>24.20833333333333</v>
+      </c>
+      <c r="G34">
+        <v>13.875</v>
+      </c>
+      <c r="H34">
+        <v>108</v>
+      </c>
+      <c r="I34">
+        <v>25.45833333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>20200603</v>
+      </c>
+      <c r="C35">
+        <v>5.75</v>
+      </c>
+      <c r="D35">
+        <v>32.70833333333334</v>
+      </c>
+      <c r="E35">
+        <v>0.5841666666666666</v>
+      </c>
+      <c r="F35">
+        <v>35.83333333333334</v>
+      </c>
+      <c r="G35">
+        <v>16.70833333333333</v>
+      </c>
+      <c r="H35">
+        <v>125</v>
+      </c>
+      <c r="I35">
+        <v>37.04166666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>20200604</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>52.375</v>
+      </c>
+      <c r="E36">
+        <v>0.8358333333333333</v>
+      </c>
+      <c r="F36">
+        <v>56.75</v>
+      </c>
+      <c r="G36">
+        <v>26</v>
+      </c>
+      <c r="H36">
+        <v>158</v>
+      </c>
+      <c r="I36">
+        <v>57.58333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>20200605</v>
+      </c>
+      <c r="C37">
+        <v>8.916666666666666</v>
+      </c>
+      <c r="D37">
+        <v>53.91666666666666</v>
+      </c>
+      <c r="E37">
+        <v>0.8079166666666667</v>
+      </c>
+      <c r="F37">
+        <v>69.70833333333333</v>
+      </c>
+      <c r="G37">
+        <v>32.375</v>
+      </c>
+      <c r="H37">
+        <v>225</v>
+      </c>
+      <c r="I37">
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>20200606</v>
+      </c>
+      <c r="C38">
+        <v>9.958333333333334</v>
+      </c>
+      <c r="D38">
+        <v>67.79166666666667</v>
+      </c>
+      <c r="E38">
+        <v>0.9254166666666668</v>
+      </c>
+      <c r="F38">
+        <v>83.75</v>
+      </c>
+      <c r="G38">
+        <v>39.91666666666666</v>
+      </c>
+      <c r="H38">
+        <v>166</v>
+      </c>
+      <c r="I38">
+        <v>67.08333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>20200607</v>
+      </c>
+      <c r="C39">
+        <v>6.708333333333333</v>
+      </c>
+      <c r="D39">
+        <v>48.25</v>
+      </c>
+      <c r="E39">
+        <v>0.835</v>
+      </c>
+      <c r="F39">
+        <v>67.08333333333333</v>
+      </c>
+      <c r="G39">
+        <v>43.95833333333334</v>
+      </c>
+      <c r="H39">
+        <v>93</v>
+      </c>
+      <c r="I39">
+        <v>61.875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200608</v>
+      </c>
+      <c r="C40">
+        <v>5.041666666666667</v>
+      </c>
+      <c r="D40">
+        <v>35.04166666666666</v>
+      </c>
+      <c r="E40">
+        <v>0.745</v>
+      </c>
+      <c r="F40">
+        <v>40.66666666666666</v>
+      </c>
+      <c r="G40">
+        <v>28.58333333333333</v>
+      </c>
+      <c r="H40">
+        <v>73</v>
+      </c>
+      <c r="I40">
+        <v>41.45833333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>20200609</v>
+      </c>
+      <c r="C41">
+        <v>5.130434782608695</v>
+      </c>
+      <c r="D41">
+        <v>31.56521739130435</v>
+      </c>
+      <c r="E41">
+        <v>0.5956521739130435</v>
+      </c>
+      <c r="F41">
+        <v>37.47826086956522</v>
+      </c>
+      <c r="G41">
+        <v>21.52173913043478</v>
+      </c>
+      <c r="H41">
+        <v>54</v>
+      </c>
+      <c r="I41">
+        <v>37.39130434782609</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>20200610</v>
+      </c>
+      <c r="C42">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="D42">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="E42">
+        <v>0.89</v>
+      </c>
+      <c r="F42">
+        <v>49.83333333333334</v>
+      </c>
+      <c r="G42">
+        <v>28.79166666666667</v>
+      </c>
+      <c r="H42">
+        <v>143</v>
+      </c>
+      <c r="I42">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>20200611</v>
+      </c>
+      <c r="C43">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="D43">
+        <v>62.08333333333334</v>
+      </c>
+      <c r="E43">
+        <v>1.052083333333333</v>
+      </c>
+      <c r="F43">
+        <v>55.83333333333334</v>
+      </c>
+      <c r="G43">
+        <v>29.875</v>
+      </c>
+      <c r="H43">
+        <v>117</v>
+      </c>
+      <c r="I43">
+        <v>52.70833333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>20200612</v>
+      </c>
+      <c r="C44">
+        <v>8.958333333333334</v>
+      </c>
+      <c r="D44">
+        <v>39.75</v>
+      </c>
+      <c r="E44">
+        <v>0.84875</v>
+      </c>
+      <c r="F44">
+        <v>32.91666666666666</v>
+      </c>
+      <c r="G44">
+        <v>20.875</v>
+      </c>
+      <c r="H44">
+        <v>56</v>
+      </c>
+      <c r="I44">
+        <v>32.83333333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>20200613</v>
+      </c>
+      <c r="C45">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D45">
+        <v>42.125</v>
+      </c>
+      <c r="E45">
+        <v>0.91125</v>
+      </c>
+      <c r="F45">
+        <v>48.54166666666666</v>
+      </c>
+      <c r="G45">
+        <v>29.75</v>
+      </c>
+      <c r="H45">
+        <v>99</v>
+      </c>
+      <c r="I45">
+        <v>48.45833333333334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>20200614</v>
+      </c>
+      <c r="C46">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D46">
+        <v>26.33333333333333</v>
+      </c>
+      <c r="E46">
+        <v>0.6816666666666666</v>
+      </c>
+      <c r="F46">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="H46">
+        <v>115</v>
+      </c>
+      <c r="I46">
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>20200615</v>
+      </c>
+      <c r="C47">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D47">
+        <v>28.83333333333333</v>
+      </c>
+      <c r="E47">
+        <v>0.6891666666666666</v>
+      </c>
+      <c r="F47">
+        <v>33.95833333333334</v>
+      </c>
+      <c r="G47">
+        <v>18.91666666666667</v>
+      </c>
+      <c r="H47">
+        <v>131</v>
+      </c>
+      <c r="I47">
+        <v>38.875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>20200616</v>
+      </c>
+      <c r="C48">
+        <v>6.416666666666667</v>
+      </c>
+      <c r="D48">
+        <v>26.83333333333333</v>
+      </c>
+      <c r="E48">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="F48">
+        <v>25.04166666666667</v>
+      </c>
+      <c r="G48">
+        <v>10.875</v>
+      </c>
+      <c r="H48">
+        <v>104</v>
+      </c>
+      <c r="I48">
+        <v>28.66666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>20200617</v>
+      </c>
+      <c r="C49">
+        <v>6.541666666666667</v>
+      </c>
+      <c r="D49">
+        <v>26.20833333333333</v>
+      </c>
+      <c r="E49">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="F49">
+        <v>22.75</v>
+      </c>
+      <c r="G49">
+        <v>12.20833333333333</v>
+      </c>
+      <c r="H49">
+        <v>64</v>
+      </c>
+      <c r="I49">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>20200618</v>
+      </c>
+      <c r="C50">
+        <v>7.541666666666667</v>
+      </c>
+      <c r="D50">
+        <v>27.83333333333333</v>
+      </c>
+      <c r="E50">
+        <v>0.6841666666666666</v>
+      </c>
+      <c r="F50">
+        <v>29.58333333333333</v>
+      </c>
+      <c r="G50">
+        <v>15.83333333333333</v>
+      </c>
+      <c r="H50">
+        <v>128</v>
+      </c>
+      <c r="I50">
+        <v>33.08333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>20200619</v>
+      </c>
+      <c r="C51">
+        <v>8.708333333333334</v>
+      </c>
+      <c r="D51">
+        <v>36.375</v>
+      </c>
+      <c r="E51">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="F51">
+        <v>36.29166666666666</v>
+      </c>
+      <c r="G51">
+        <v>17.45833333333333</v>
+      </c>
+      <c r="H51">
+        <v>149</v>
+      </c>
+      <c r="I51">
+        <v>41.33333333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>20200620</v>
+      </c>
+      <c r="C52">
+        <v>6.75</v>
+      </c>
+      <c r="D52">
+        <v>25.375</v>
+      </c>
+      <c r="E52">
+        <v>0.6291666666666667</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>12.04166666666667</v>
+      </c>
+      <c r="H52">
+        <v>99</v>
+      </c>
+      <c r="I52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>20200621</v>
+      </c>
+      <c r="C53">
+        <v>6.291666666666667</v>
+      </c>
+      <c r="D53">
+        <v>36.04166666666666</v>
+      </c>
+      <c r="E53">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="F53">
+        <v>33.04166666666666</v>
+      </c>
+      <c r="G53">
+        <v>18.45833333333333</v>
+      </c>
+      <c r="H53">
+        <v>86</v>
+      </c>
+      <c r="I53">
+        <v>33.04166666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>20200622</v>
+      </c>
+      <c r="C54">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="D54">
+        <v>38.08333333333334</v>
+      </c>
+      <c r="E54">
+        <v>0.8679166666666668</v>
+      </c>
+      <c r="F54">
+        <v>44.91666666666666</v>
+      </c>
+      <c r="G54">
+        <v>28.41666666666667</v>
+      </c>
+      <c r="H54">
+        <v>58</v>
+      </c>
+      <c r="I54">
+        <v>45.625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>20200623</v>
+      </c>
+      <c r="C55">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="D55">
+        <v>36.79166666666666</v>
+      </c>
+      <c r="E55">
+        <v>0.8641666666666667</v>
+      </c>
+      <c r="F55">
+        <v>38.75</v>
+      </c>
+      <c r="G55">
+        <v>26</v>
+      </c>
+      <c r="H55">
+        <v>45</v>
+      </c>
+      <c r="I55">
+        <v>39.29166666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>20200624</v>
+      </c>
+      <c r="C56">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="D56">
+        <v>36.41666666666666</v>
+      </c>
+      <c r="E56">
+        <v>0.8983333333333333</v>
+      </c>
+      <c r="F56">
+        <v>37.70833333333334</v>
+      </c>
+      <c r="G56">
+        <v>22.70833333333333</v>
+      </c>
+      <c r="H56">
+        <v>154</v>
+      </c>
+      <c r="I56">
+        <v>44.33333333333334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>20200625</v>
+      </c>
+      <c r="C57">
+        <v>7.375</v>
+      </c>
+      <c r="D57">
+        <v>38.125</v>
+      </c>
+      <c r="E57">
+        <v>0.8316666666666667</v>
+      </c>
+      <c r="F57">
+        <v>38</v>
+      </c>
+      <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>176</v>
+      </c>
+      <c r="I57">
+        <v>51.91666666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>20200626</v>
+      </c>
+      <c r="C58">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D58">
+        <v>27.95833333333333</v>
+      </c>
+      <c r="E58">
+        <v>0.6670833333333334</v>
+      </c>
+      <c r="F58">
+        <v>30.125</v>
+      </c>
+      <c r="G58">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="H58">
+        <v>131</v>
+      </c>
+      <c r="I58">
+        <v>34.04166666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>20200627</v>
+      </c>
+      <c r="C59">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>0.6754166666666667</v>
+      </c>
+      <c r="F59">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="G59">
+        <v>16.25</v>
+      </c>
+      <c r="H59">
+        <v>76</v>
+      </c>
+      <c r="I59">
+        <v>24.41666666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>20200628</v>
+      </c>
+      <c r="C60">
+        <v>5.5</v>
+      </c>
+      <c r="D60">
+        <v>34.33333333333334</v>
+      </c>
+      <c r="E60">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="F60">
+        <v>32.20833333333334</v>
+      </c>
+      <c r="G60">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="H60">
+        <v>51</v>
+      </c>
+      <c r="I60">
+        <v>32.54166666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>20200629</v>
+      </c>
+      <c r="C61">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D61">
+        <v>36.79166666666666</v>
+      </c>
+      <c r="E61">
+        <v>0.895</v>
+      </c>
+      <c r="F61">
+        <v>39.33333333333334</v>
+      </c>
+      <c r="G61">
+        <v>23.25</v>
+      </c>
+      <c r="H61">
+        <v>141</v>
+      </c>
+      <c r="I61">
+        <v>44.58333333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20200630</v>
+      </c>
+      <c r="C62">
+        <v>5.958333333333333</v>
+      </c>
+      <c r="D62">
+        <v>44.79166666666666</v>
+      </c>
+      <c r="E62">
+        <v>0.9054166666666666</v>
+      </c>
+      <c r="F62">
+        <v>36.08333333333334</v>
+      </c>
+      <c r="G62">
+        <v>17.91666666666667</v>
+      </c>
+      <c r="H62">
+        <v>95</v>
+      </c>
+      <c r="I62">
+        <v>36.83333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
